--- a/SpringSpeedTestResults/SpringSpeedTestResults/Results.xlsx
+++ b/SpringSpeedTestResults/SpringSpeedTestResults/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davek\git\SpringTest\springSpeedTest04_MicroserviceA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davek\git\SpringTest\SpringSpeedTestResults\SpringSpeedTestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="753" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="SpringMSDiscovery" sheetId="11" r:id="rId7"/>
     <sheet name="Chart1" sheetId="6" r:id="rId8"/>
     <sheet name="Chart2" sheetId="5" r:id="rId9"/>
+    <sheet name="Chart1 (2)" sheetId="12" r:id="rId10"/>
+    <sheet name="Chart2 (2)" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Create</t>
   </si>
@@ -65,6 +67,9 @@
   </si>
   <si>
     <t>Spring Web/Microservices/Discovery</t>
+  </si>
+  <si>
+    <t>Spring Web/Microservices/Discovery, Double size Entity</t>
   </si>
 </sst>
 </file>
@@ -100,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,7 +169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1580,11 +1585,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="605284856"/>
-        <c:axId val="605276624"/>
+        <c:axId val="244466888"/>
+        <c:axId val="244468064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="605284856"/>
+        <c:axId val="244466888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605276624"/>
+        <c:crossAx val="244468064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605276624"/>
+        <c:axId val="244468064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605284856"/>
+        <c:crossAx val="244466888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,7 +1704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1801,7 +1805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3518,11 +3521,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="611435440"/>
-        <c:axId val="611441320"/>
+        <c:axId val="244471592"/>
+        <c:axId val="244465712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="611435440"/>
+        <c:axId val="244471592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611441320"/>
+        <c:crossAx val="244465712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3572,7 +3575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="611441320"/>
+        <c:axId val="244465712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +3626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611435440"/>
+        <c:crossAx val="244471592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3637,7 +3640,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3739,7 +3741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5456,11 +5457,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="626863752"/>
-        <c:axId val="626861792"/>
+        <c:axId val="244464144"/>
+        <c:axId val="244467672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="626863752"/>
+        <c:axId val="244464144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626861792"/>
+        <c:crossAx val="244467672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5510,7 +5511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626861792"/>
+        <c:axId val="244467672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5561,7 +5562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626863752"/>
+        <c:crossAx val="244464144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5575,7 +5576,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5677,7 +5677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7394,11 +7393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="605287992"/>
-        <c:axId val="605288776"/>
+        <c:axId val="244468456"/>
+        <c:axId val="244470808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="605287992"/>
+        <c:axId val="244468456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7440,7 +7439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605288776"/>
+        <c:crossAx val="244470808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7448,7 +7447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605288776"/>
+        <c:axId val="244470808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7499,7 +7498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605287992"/>
+        <c:crossAx val="244468456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7513,7 +7512,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7615,7 +7613,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9332,11 +9329,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608158008"/>
-        <c:axId val="608147816"/>
+        <c:axId val="244466104"/>
+        <c:axId val="244466496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608158008"/>
+        <c:axId val="244466104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9378,7 +9375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608147816"/>
+        <c:crossAx val="244466496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9386,7 +9383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608147816"/>
+        <c:axId val="244466496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9437,7 +9434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608158008"/>
+        <c:crossAx val="244466104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9451,7 +9448,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9591,9 +9587,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$4:$B$8</c:f>
+              <c:f>Summary!$B$4:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -9608,16 +9604,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$4:$C$8</c:f>
+              <c:f>Summary!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9.0630000000000002E-2</c:v>
                 </c:pt>
@@ -9632,6 +9631,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>30.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9663,9 +9665,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$4:$B$8</c:f>
+              <c:f>Summary!$B$4:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -9680,16 +9682,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$4:$D$8</c:f>
+              <c:f>Summary!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>1515.27</c:v>
                 </c:pt>
@@ -9701,6 +9706,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5013.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>4086.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9732,9 +9740,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$4:$B$8</c:f>
+              <c:f>Summary!$B$4:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -9749,16 +9757,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$4:$E$8</c:f>
+              <c:f>Summary!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.2100000000000004E-2</c:v>
                 </c:pt>
@@ -9773,6 +9784,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>18.309999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9804,9 +9818,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$4:$B$8</c:f>
+              <c:f>Summary!$B$4:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -9821,16 +9835,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$4:$F$8</c:f>
+              <c:f>Summary!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.12512000000000001</c:v>
                 </c:pt>
@@ -9845,6 +9862,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3389.83</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>3182.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9876,9 +9896,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$4:$B$8</c:f>
+              <c:f>Summary!$B$4:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -9893,16 +9913,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$G$4:$G$8</c:f>
+              <c:f>Summary!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.7260000000000003E-2</c:v>
                 </c:pt>
@@ -9917,6 +9940,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3404.53</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>3179.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9932,11 +9958,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="454281752"/>
-        <c:axId val="454282144"/>
+        <c:axId val="446194664"/>
+        <c:axId val="446200936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454281752"/>
+        <c:axId val="446194664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9979,7 +10005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454282144"/>
+        <c:crossAx val="446200936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9987,7 +10013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454282144"/>
+        <c:axId val="446200936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10038,7 +10064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454281752"/>
+        <c:crossAx val="446194664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10192,9 +10218,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$16:$B$19</c:f>
+              <c:f>Summary!$B$16:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -10206,16 +10232,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$16:$C$19</c:f>
+              <c:f>Summary!$C$16:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.0630000000000002E-2</c:v>
                 </c:pt>
@@ -10227,6 +10256,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10258,9 +10290,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$B$16:$B$19</c:f>
+              <c:f>Summary!$B$16:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Not Spring</c:v>
                 </c:pt>
@@ -10272,16 +10304,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$16:$D$19</c:f>
+              <c:f>Summary!$D$16:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.2100000000000004E-2</c:v>
                 </c:pt>
@@ -10293,6 +10328,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.309999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,11 +10346,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="456078600"/>
-        <c:axId val="162178808"/>
+        <c:axId val="446202112"/>
+        <c:axId val="446201328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456078600"/>
+        <c:axId val="446202112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10355,7 +10393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162178808"/>
+        <c:crossAx val="446201328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10363,7 +10401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162178808"/>
+        <c:axId val="446201328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10414,7 +10452,1021 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456078600"/>
+        <c:crossAx val="446202112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Entity Size comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$4:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$C$4:$C$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0">
+                  <c:v>30.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$4:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$D$4:$D$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5013.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0">
+                  <c:v>4086.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$4:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$E$4:$E$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$4:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$F$4:$F$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3389.83</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0">
+                  <c:v>3182.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$4:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$G$4:$G$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$G$8:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3404.53</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0">
+                  <c:v>3179.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="449051344"/>
+        <c:axId val="449162520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449051344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449162520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449162520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449051344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Entity Size comparison Batch ops</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$16:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$19:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$C$16:$C$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$C$19:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$B$16:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$B$19:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Spring Web/Microservices/Discovery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring Web/Microservices/Discovery, Double size Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Summary!$D$16:$D$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Summary!$D$19:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="451680072"/>
+        <c:axId val="534438200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="451680072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534438200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534438200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451680072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10770,6 +11822,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -13799,6 +14931,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14368,6 +16506,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -14541,6 +16701,60 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6080760"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6080760"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -14830,15 +17044,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="K64" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -14857,8 +17074,11 @@
       <c r="Y1" t="s">
         <v>10</v>
       </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14934,8 +17154,23 @@
       <c r="AC2" t="s">
         <v>3</v>
       </c>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104</v>
       </c>
@@ -15008,8 +17243,23 @@
       <c r="AC3">
         <v>4266</v>
       </c>
+      <c r="AE3" s="1">
+        <v>274</v>
+      </c>
+      <c r="AF3">
+        <v>13416</v>
+      </c>
+      <c r="AG3">
+        <v>124</v>
+      </c>
+      <c r="AH3">
+        <v>6072</v>
+      </c>
+      <c r="AI3">
+        <v>3612</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>69</v>
       </c>
@@ -15082,8 +17332,23 @@
       <c r="AC4">
         <v>3339</v>
       </c>
+      <c r="AE4">
+        <v>65</v>
+      </c>
+      <c r="AF4">
+        <v>6784</v>
+      </c>
+      <c r="AG4">
+        <v>26</v>
+      </c>
+      <c r="AH4">
+        <v>3385</v>
+      </c>
+      <c r="AI4">
+        <v>3210</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>57</v>
       </c>
@@ -15156,8 +17421,23 @@
       <c r="AC5">
         <v>3379</v>
       </c>
+      <c r="AE5">
+        <v>32</v>
+      </c>
+      <c r="AF5">
+        <v>4003</v>
+      </c>
+      <c r="AG5">
+        <v>20</v>
+      </c>
+      <c r="AH5">
+        <v>3193</v>
+      </c>
+      <c r="AI5">
+        <v>3173</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71</v>
       </c>
@@ -15230,8 +17510,23 @@
       <c r="AC6">
         <v>3380</v>
       </c>
+      <c r="AE6">
+        <v>31</v>
+      </c>
+      <c r="AF6">
+        <v>3936</v>
+      </c>
+      <c r="AG6">
+        <v>20</v>
+      </c>
+      <c r="AH6">
+        <v>3123</v>
+      </c>
+      <c r="AI6">
+        <v>3126</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>74</v>
       </c>
@@ -15304,8 +17599,23 @@
       <c r="AC7">
         <v>3397</v>
       </c>
+      <c r="AE7">
+        <v>31</v>
+      </c>
+      <c r="AF7">
+        <v>4178</v>
+      </c>
+      <c r="AG7">
+        <v>20</v>
+      </c>
+      <c r="AH7">
+        <v>3097</v>
+      </c>
+      <c r="AI7">
+        <v>3146</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>52</v>
       </c>
@@ -15378,8 +17688,23 @@
       <c r="AC8">
         <v>3415</v>
       </c>
+      <c r="AE8">
+        <v>30</v>
+      </c>
+      <c r="AF8">
+        <v>3869</v>
+      </c>
+      <c r="AG8">
+        <v>20</v>
+      </c>
+      <c r="AH8">
+        <v>3099</v>
+      </c>
+      <c r="AI8">
+        <v>3125</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>165</v>
       </c>
@@ -15452,8 +17777,23 @@
       <c r="AC9">
         <v>3270</v>
       </c>
+      <c r="AE9">
+        <v>31</v>
+      </c>
+      <c r="AF9">
+        <v>4040</v>
+      </c>
+      <c r="AG9">
+        <v>21</v>
+      </c>
+      <c r="AH9">
+        <v>3099</v>
+      </c>
+      <c r="AI9">
+        <v>3114</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53</v>
       </c>
@@ -15526,8 +17866,23 @@
       <c r="AC10">
         <v>3401</v>
       </c>
+      <c r="AE10">
+        <v>30</v>
+      </c>
+      <c r="AF10">
+        <v>4046</v>
+      </c>
+      <c r="AG10">
+        <v>19</v>
+      </c>
+      <c r="AH10">
+        <v>3132</v>
+      </c>
+      <c r="AI10">
+        <v>3119</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>682</v>
       </c>
@@ -15600,8 +17955,23 @@
       <c r="AC11">
         <v>3275</v>
       </c>
+      <c r="AE11">
+        <v>40</v>
+      </c>
+      <c r="AF11">
+        <v>4027</v>
+      </c>
+      <c r="AG11">
+        <v>21</v>
+      </c>
+      <c r="AH11">
+        <v>3071</v>
+      </c>
+      <c r="AI11">
+        <v>3120</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>145</v>
       </c>
@@ -15674,8 +18044,23 @@
       <c r="AC12">
         <v>3307</v>
       </c>
+      <c r="AE12">
+        <v>29</v>
+      </c>
+      <c r="AF12">
+        <v>3936</v>
+      </c>
+      <c r="AG12">
+        <v>18</v>
+      </c>
+      <c r="AH12">
+        <v>3057</v>
+      </c>
+      <c r="AI12">
+        <v>3132</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>91</v>
       </c>
@@ -15748,8 +18133,23 @@
       <c r="AC13">
         <v>3390</v>
       </c>
+      <c r="AE13">
+        <v>42</v>
+      </c>
+      <c r="AF13">
+        <v>4013</v>
+      </c>
+      <c r="AG13">
+        <v>18</v>
+      </c>
+      <c r="AH13">
+        <v>3084</v>
+      </c>
+      <c r="AI13">
+        <v>3116</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>58</v>
       </c>
@@ -15822,8 +18222,23 @@
       <c r="AC14">
         <v>3555</v>
       </c>
+      <c r="AE14">
+        <v>27</v>
+      </c>
+      <c r="AF14">
+        <v>3830</v>
+      </c>
+      <c r="AG14">
+        <v>19</v>
+      </c>
+      <c r="AH14">
+        <v>3066</v>
+      </c>
+      <c r="AI14">
+        <v>3156</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -15896,8 +18311,23 @@
       <c r="AC15">
         <v>3461</v>
       </c>
+      <c r="AE15">
+        <v>28</v>
+      </c>
+      <c r="AF15">
+        <v>3908</v>
+      </c>
+      <c r="AG15">
+        <v>17</v>
+      </c>
+      <c r="AH15">
+        <v>3083</v>
+      </c>
+      <c r="AI15">
+        <v>3081</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>85</v>
       </c>
@@ -15970,8 +18400,23 @@
       <c r="AC16">
         <v>3279</v>
       </c>
+      <c r="AE16">
+        <v>38</v>
+      </c>
+      <c r="AF16">
+        <v>4015</v>
+      </c>
+      <c r="AG16">
+        <v>17</v>
+      </c>
+      <c r="AH16">
+        <v>3078</v>
+      </c>
+      <c r="AI16">
+        <v>3225</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -16044,8 +18489,23 @@
       <c r="AC17">
         <v>3352</v>
       </c>
+      <c r="AE17">
+        <v>27</v>
+      </c>
+      <c r="AF17">
+        <v>3936</v>
+      </c>
+      <c r="AG17">
+        <v>17</v>
+      </c>
+      <c r="AH17">
+        <v>3072</v>
+      </c>
+      <c r="AI17">
+        <v>3102</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>62</v>
       </c>
@@ -16118,8 +18578,23 @@
       <c r="AC18">
         <v>3267</v>
       </c>
+      <c r="AE18">
+        <v>28</v>
+      </c>
+      <c r="AF18">
+        <v>3969</v>
+      </c>
+      <c r="AG18">
+        <v>17</v>
+      </c>
+      <c r="AH18">
+        <v>3141</v>
+      </c>
+      <c r="AI18">
+        <v>3197</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>311</v>
       </c>
@@ -16192,8 +18667,23 @@
       <c r="AC19">
         <v>3276</v>
       </c>
+      <c r="AE19">
+        <v>27</v>
+      </c>
+      <c r="AF19">
+        <v>3914</v>
+      </c>
+      <c r="AG19">
+        <v>17</v>
+      </c>
+      <c r="AH19">
+        <v>3190</v>
+      </c>
+      <c r="AI19">
+        <v>3242</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>63</v>
       </c>
@@ -16266,8 +18756,23 @@
       <c r="AC20">
         <v>3353</v>
       </c>
+      <c r="AE20">
+        <v>26</v>
+      </c>
+      <c r="AF20">
+        <v>3875</v>
+      </c>
+      <c r="AG20">
+        <v>17</v>
+      </c>
+      <c r="AH20">
+        <v>3186</v>
+      </c>
+      <c r="AI20">
+        <v>3275</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
@@ -16340,8 +18845,23 @@
       <c r="AC21">
         <v>3249</v>
       </c>
+      <c r="AE21">
+        <v>29</v>
+      </c>
+      <c r="AF21">
+        <v>3955</v>
+      </c>
+      <c r="AG21">
+        <v>17</v>
+      </c>
+      <c r="AH21">
+        <v>3188</v>
+      </c>
+      <c r="AI21">
+        <v>3204</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>53</v>
       </c>
@@ -16414,8 +18934,23 @@
       <c r="AC22">
         <v>3265</v>
       </c>
+      <c r="AE22">
+        <v>27</v>
+      </c>
+      <c r="AF22">
+        <v>3957</v>
+      </c>
+      <c r="AG22">
+        <v>17</v>
+      </c>
+      <c r="AH22">
+        <v>3197</v>
+      </c>
+      <c r="AI22">
+        <v>3250</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>209</v>
       </c>
@@ -16488,8 +19023,23 @@
       <c r="AC23">
         <v>3257</v>
       </c>
+      <c r="AE23">
+        <v>28</v>
+      </c>
+      <c r="AF23">
+        <v>3947</v>
+      </c>
+      <c r="AG23">
+        <v>17</v>
+      </c>
+      <c r="AH23">
+        <v>3094</v>
+      </c>
+      <c r="AI23">
+        <v>3134</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>56</v>
       </c>
@@ -16562,8 +19112,23 @@
       <c r="AC24">
         <v>3366</v>
       </c>
+      <c r="AE24">
+        <v>27</v>
+      </c>
+      <c r="AF24">
+        <v>3978</v>
+      </c>
+      <c r="AG24">
+        <v>17</v>
+      </c>
+      <c r="AH24">
+        <v>3139</v>
+      </c>
+      <c r="AI24">
+        <v>3092</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53</v>
       </c>
@@ -16636,8 +19201,23 @@
       <c r="AC25">
         <v>3388</v>
       </c>
+      <c r="AE25">
+        <v>27</v>
+      </c>
+      <c r="AF25">
+        <v>3815</v>
+      </c>
+      <c r="AG25">
+        <v>16</v>
+      </c>
+      <c r="AH25">
+        <v>3037</v>
+      </c>
+      <c r="AI25">
+        <v>3052</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -16710,8 +19290,23 @@
       <c r="AC26">
         <v>3447</v>
       </c>
+      <c r="AE26">
+        <v>29</v>
+      </c>
+      <c r="AF26">
+        <v>3870</v>
+      </c>
+      <c r="AG26">
+        <v>17</v>
+      </c>
+      <c r="AH26">
+        <v>3097</v>
+      </c>
+      <c r="AI26">
+        <v>3086</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>51</v>
       </c>
@@ -16784,8 +19379,23 @@
       <c r="AC27">
         <v>3338</v>
       </c>
+      <c r="AE27">
+        <v>27</v>
+      </c>
+      <c r="AF27">
+        <v>3813</v>
+      </c>
+      <c r="AG27">
+        <v>17</v>
+      </c>
+      <c r="AH27">
+        <v>3079</v>
+      </c>
+      <c r="AI27">
+        <v>3099</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>52</v>
       </c>
@@ -16858,8 +19468,23 @@
       <c r="AC28">
         <v>3303</v>
       </c>
+      <c r="AE28">
+        <v>26</v>
+      </c>
+      <c r="AF28">
+        <v>3886</v>
+      </c>
+      <c r="AG28">
+        <v>17</v>
+      </c>
+      <c r="AH28">
+        <v>3082</v>
+      </c>
+      <c r="AI28">
+        <v>3080</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>238</v>
       </c>
@@ -16932,8 +19557,23 @@
       <c r="AC29">
         <v>3322</v>
       </c>
+      <c r="AE29">
+        <v>27</v>
+      </c>
+      <c r="AF29">
+        <v>3966</v>
+      </c>
+      <c r="AG29">
+        <v>17</v>
+      </c>
+      <c r="AH29">
+        <v>3035</v>
+      </c>
+      <c r="AI29">
+        <v>3081</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>52</v>
       </c>
@@ -17006,8 +19646,23 @@
       <c r="AC30">
         <v>3291</v>
       </c>
+      <c r="AE30">
+        <v>27</v>
+      </c>
+      <c r="AF30">
+        <v>3764</v>
+      </c>
+      <c r="AG30">
+        <v>19</v>
+      </c>
+      <c r="AH30">
+        <v>3058</v>
+      </c>
+      <c r="AI30">
+        <v>3088</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>223</v>
       </c>
@@ -17080,8 +19735,23 @@
       <c r="AC31">
         <v>3585</v>
       </c>
+      <c r="AE31">
+        <v>26</v>
+      </c>
+      <c r="AF31">
+        <v>3926</v>
+      </c>
+      <c r="AG31">
+        <v>17</v>
+      </c>
+      <c r="AH31">
+        <v>3043</v>
+      </c>
+      <c r="AI31">
+        <v>3059</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>208</v>
       </c>
@@ -17154,8 +19824,23 @@
       <c r="AC32">
         <v>3582</v>
       </c>
+      <c r="AE32">
+        <v>27</v>
+      </c>
+      <c r="AF32">
+        <v>3813</v>
+      </c>
+      <c r="AG32">
+        <v>17</v>
+      </c>
+      <c r="AH32">
+        <v>3100</v>
+      </c>
+      <c r="AI32">
+        <v>3074</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>56</v>
       </c>
@@ -17228,8 +19913,23 @@
       <c r="AC33">
         <v>3633</v>
       </c>
+      <c r="AE33">
+        <v>26</v>
+      </c>
+      <c r="AF33">
+        <v>3862</v>
+      </c>
+      <c r="AG33">
+        <v>16</v>
+      </c>
+      <c r="AH33">
+        <v>3050</v>
+      </c>
+      <c r="AI33">
+        <v>3093</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>51</v>
       </c>
@@ -17302,8 +20002,23 @@
       <c r="AC34">
         <v>3370</v>
       </c>
+      <c r="AE34">
+        <v>27</v>
+      </c>
+      <c r="AF34">
+        <v>3865</v>
+      </c>
+      <c r="AG34">
+        <v>17</v>
+      </c>
+      <c r="AH34">
+        <v>3073</v>
+      </c>
+      <c r="AI34">
+        <v>3321</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>51</v>
       </c>
@@ -17376,8 +20091,23 @@
       <c r="AC35">
         <v>3369</v>
       </c>
+      <c r="AE35">
+        <v>31</v>
+      </c>
+      <c r="AF35">
+        <v>4026</v>
+      </c>
+      <c r="AG35">
+        <v>17</v>
+      </c>
+      <c r="AH35">
+        <v>3207</v>
+      </c>
+      <c r="AI35">
+        <v>3226</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>255</v>
       </c>
@@ -17450,8 +20180,23 @@
       <c r="AC36">
         <v>3433</v>
       </c>
+      <c r="AE36">
+        <v>27</v>
+      </c>
+      <c r="AF36">
+        <v>4022</v>
+      </c>
+      <c r="AG36">
+        <v>17</v>
+      </c>
+      <c r="AH36">
+        <v>3215</v>
+      </c>
+      <c r="AI36">
+        <v>3232</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>172</v>
       </c>
@@ -17524,8 +20269,23 @@
       <c r="AC37">
         <v>3330</v>
       </c>
+      <c r="AE37">
+        <v>27</v>
+      </c>
+      <c r="AF37">
+        <v>4008</v>
+      </c>
+      <c r="AG37">
+        <v>18</v>
+      </c>
+      <c r="AH37">
+        <v>3158</v>
+      </c>
+      <c r="AI37">
+        <v>3203</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>51</v>
       </c>
@@ -17598,8 +20358,23 @@
       <c r="AC38">
         <v>3356</v>
       </c>
+      <c r="AE38">
+        <v>27</v>
+      </c>
+      <c r="AF38">
+        <v>4030</v>
+      </c>
+      <c r="AG38">
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <v>3221</v>
+      </c>
+      <c r="AI38">
+        <v>3199</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>49</v>
       </c>
@@ -17672,8 +20447,23 @@
       <c r="AC39">
         <v>3462</v>
       </c>
+      <c r="AE39">
+        <v>26</v>
+      </c>
+      <c r="AF39">
+        <v>4044</v>
+      </c>
+      <c r="AG39">
+        <v>19</v>
+      </c>
+      <c r="AH39">
+        <v>3190</v>
+      </c>
+      <c r="AI39">
+        <v>3195</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>51</v>
       </c>
@@ -17746,8 +20536,23 @@
       <c r="AC40">
         <v>3280</v>
       </c>
+      <c r="AE40">
+        <v>27</v>
+      </c>
+      <c r="AF40">
+        <v>4166</v>
+      </c>
+      <c r="AG40">
+        <v>17</v>
+      </c>
+      <c r="AH40">
+        <v>3187</v>
+      </c>
+      <c r="AI40">
+        <v>3198</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>51</v>
       </c>
@@ -17820,8 +20625,23 @@
       <c r="AC41">
         <v>3317</v>
       </c>
+      <c r="AE41">
+        <v>26</v>
+      </c>
+      <c r="AF41">
+        <v>3951</v>
+      </c>
+      <c r="AG41">
+        <v>17</v>
+      </c>
+      <c r="AH41">
+        <v>3186</v>
+      </c>
+      <c r="AI41">
+        <v>3177</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
@@ -17894,8 +20714,23 @@
       <c r="AC42">
         <v>3789</v>
       </c>
+      <c r="AE42">
+        <v>27</v>
+      </c>
+      <c r="AF42">
+        <v>4005</v>
+      </c>
+      <c r="AG42">
+        <v>17</v>
+      </c>
+      <c r="AH42">
+        <v>3095</v>
+      </c>
+      <c r="AI42">
+        <v>3140</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>49</v>
       </c>
@@ -17968,8 +20803,23 @@
       <c r="AC43">
         <v>3299</v>
       </c>
+      <c r="AE43">
+        <v>26</v>
+      </c>
+      <c r="AF43">
+        <v>3938</v>
+      </c>
+      <c r="AG43">
+        <v>16</v>
+      </c>
+      <c r="AH43">
+        <v>3112</v>
+      </c>
+      <c r="AI43">
+        <v>3121</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
@@ -18042,8 +20892,23 @@
       <c r="AC44">
         <v>3312</v>
       </c>
+      <c r="AE44">
+        <v>28</v>
+      </c>
+      <c r="AF44">
+        <v>4021</v>
+      </c>
+      <c r="AG44">
+        <v>17</v>
+      </c>
+      <c r="AH44">
+        <v>3092</v>
+      </c>
+      <c r="AI44">
+        <v>3135</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>236</v>
       </c>
@@ -18116,8 +20981,23 @@
       <c r="AC45">
         <v>3387</v>
       </c>
+      <c r="AE45">
+        <v>27</v>
+      </c>
+      <c r="AF45">
+        <v>3887</v>
+      </c>
+      <c r="AG45">
+        <v>17</v>
+      </c>
+      <c r="AH45">
+        <v>3082</v>
+      </c>
+      <c r="AI45">
+        <v>3121</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
@@ -18190,8 +21070,23 @@
       <c r="AC46">
         <v>3359</v>
       </c>
+      <c r="AE46">
+        <v>26</v>
+      </c>
+      <c r="AF46">
+        <v>4046</v>
+      </c>
+      <c r="AG46">
+        <v>17</v>
+      </c>
+      <c r="AH46">
+        <v>3095</v>
+      </c>
+      <c r="AI46">
+        <v>3163</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -18264,8 +21159,23 @@
       <c r="AC47">
         <v>3303</v>
       </c>
+      <c r="AE47">
+        <v>27</v>
+      </c>
+      <c r="AF47">
+        <v>3927</v>
+      </c>
+      <c r="AG47">
+        <v>17</v>
+      </c>
+      <c r="AH47">
+        <v>3112</v>
+      </c>
+      <c r="AI47">
+        <v>3211</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -18338,8 +21248,23 @@
       <c r="AC48">
         <v>3444</v>
       </c>
+      <c r="AE48">
+        <v>27</v>
+      </c>
+      <c r="AF48">
+        <v>4079</v>
+      </c>
+      <c r="AG48">
+        <v>17</v>
+      </c>
+      <c r="AH48">
+        <v>3187</v>
+      </c>
+      <c r="AI48">
+        <v>3224</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51</v>
       </c>
@@ -18412,8 +21337,23 @@
       <c r="AC49">
         <v>3294</v>
       </c>
+      <c r="AE49">
+        <v>26</v>
+      </c>
+      <c r="AF49">
+        <v>3952</v>
+      </c>
+      <c r="AG49">
+        <v>17</v>
+      </c>
+      <c r="AH49">
+        <v>3205</v>
+      </c>
+      <c r="AI49">
+        <v>3258</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
@@ -18486,8 +21426,23 @@
       <c r="AC50">
         <v>3460</v>
       </c>
+      <c r="AE50">
+        <v>40</v>
+      </c>
+      <c r="AF50">
+        <v>3922</v>
+      </c>
+      <c r="AG50">
+        <v>20</v>
+      </c>
+      <c r="AH50">
+        <v>3162</v>
+      </c>
+      <c r="AI50">
+        <v>3217</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -18560,8 +21515,23 @@
       <c r="AC51">
         <v>3297</v>
       </c>
+      <c r="AE51">
+        <v>27</v>
+      </c>
+      <c r="AF51">
+        <v>3928</v>
+      </c>
+      <c r="AG51">
+        <v>15</v>
+      </c>
+      <c r="AH51">
+        <v>3186</v>
+      </c>
+      <c r="AI51">
+        <v>3368</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -18634,8 +21604,23 @@
       <c r="AC52">
         <v>3281</v>
       </c>
+      <c r="AE52">
+        <v>25</v>
+      </c>
+      <c r="AF52">
+        <v>3941</v>
+      </c>
+      <c r="AG52">
+        <v>17</v>
+      </c>
+      <c r="AH52">
+        <v>3185</v>
+      </c>
+      <c r="AI52">
+        <v>3214</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>668</v>
       </c>
@@ -18708,8 +21693,23 @@
       <c r="AC53">
         <v>3410</v>
       </c>
+      <c r="AE53">
+        <v>26</v>
+      </c>
+      <c r="AF53">
+        <v>3937</v>
+      </c>
+      <c r="AG53">
+        <v>17</v>
+      </c>
+      <c r="AH53">
+        <v>3118</v>
+      </c>
+      <c r="AI53">
+        <v>3179</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -18782,8 +21782,23 @@
       <c r="AC54">
         <v>3376</v>
       </c>
+      <c r="AE54">
+        <v>26</v>
+      </c>
+      <c r="AF54">
+        <v>3941</v>
+      </c>
+      <c r="AG54">
+        <v>17</v>
+      </c>
+      <c r="AH54">
+        <v>3103</v>
+      </c>
+      <c r="AI54">
+        <v>3170</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>49</v>
       </c>
@@ -18856,8 +21871,23 @@
       <c r="AC55">
         <v>3688</v>
       </c>
+      <c r="AE55">
+        <v>25</v>
+      </c>
+      <c r="AF55">
+        <v>3926</v>
+      </c>
+      <c r="AG55">
+        <v>17</v>
+      </c>
+      <c r="AH55">
+        <v>3134</v>
+      </c>
+      <c r="AI55">
+        <v>3130</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18930,8 +21960,23 @@
       <c r="AC56">
         <v>3357</v>
       </c>
+      <c r="AE56">
+        <v>26</v>
+      </c>
+      <c r="AF56">
+        <v>3923</v>
+      </c>
+      <c r="AG56">
+        <v>17</v>
+      </c>
+      <c r="AH56">
+        <v>3144</v>
+      </c>
+      <c r="AI56">
+        <v>3124</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -19004,8 +22049,23 @@
       <c r="AC57">
         <v>3523</v>
       </c>
+      <c r="AE57">
+        <v>27</v>
+      </c>
+      <c r="AF57">
+        <v>3847</v>
+      </c>
+      <c r="AG57">
+        <v>17</v>
+      </c>
+      <c r="AH57">
+        <v>3083</v>
+      </c>
+      <c r="AI57">
+        <v>3181</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
@@ -19078,8 +22138,23 @@
       <c r="AC58">
         <v>3371</v>
       </c>
+      <c r="AE58">
+        <v>29</v>
+      </c>
+      <c r="AF58">
+        <v>3935</v>
+      </c>
+      <c r="AG58">
+        <v>17</v>
+      </c>
+      <c r="AH58">
+        <v>3134</v>
+      </c>
+      <c r="AI58">
+        <v>3163</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50</v>
       </c>
@@ -19152,8 +22227,23 @@
       <c r="AC59">
         <v>3537</v>
       </c>
+      <c r="AE59">
+        <v>27</v>
+      </c>
+      <c r="AF59">
+        <v>3909</v>
+      </c>
+      <c r="AG59">
+        <v>16</v>
+      </c>
+      <c r="AH59">
+        <v>3222</v>
+      </c>
+      <c r="AI59">
+        <v>3222</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>209</v>
       </c>
@@ -19226,8 +22316,23 @@
       <c r="AC60">
         <v>3589</v>
       </c>
+      <c r="AE60">
+        <v>28</v>
+      </c>
+      <c r="AF60">
+        <v>3930</v>
+      </c>
+      <c r="AG60">
+        <v>16</v>
+      </c>
+      <c r="AH60">
+        <v>3154</v>
+      </c>
+      <c r="AI60">
+        <v>3131</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>177</v>
       </c>
@@ -19300,8 +22405,23 @@
       <c r="AC61">
         <v>3565</v>
       </c>
+      <c r="AE61">
+        <v>27</v>
+      </c>
+      <c r="AF61">
+        <v>3891</v>
+      </c>
+      <c r="AG61">
+        <v>17</v>
+      </c>
+      <c r="AH61">
+        <v>3137</v>
+      </c>
+      <c r="AI61">
+        <v>3185</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>66</v>
       </c>
@@ -19374,8 +22494,23 @@
       <c r="AC62">
         <v>3377</v>
       </c>
+      <c r="AE62">
+        <v>27</v>
+      </c>
+      <c r="AF62">
+        <v>3878</v>
+      </c>
+      <c r="AG62">
+        <v>16</v>
+      </c>
+      <c r="AH62">
+        <v>3086</v>
+      </c>
+      <c r="AI62">
+        <v>3184</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>52</v>
       </c>
@@ -19448,8 +22583,23 @@
       <c r="AC63">
         <v>3300</v>
       </c>
+      <c r="AE63">
+        <v>28</v>
+      </c>
+      <c r="AF63">
+        <v>3829</v>
+      </c>
+      <c r="AG63">
+        <v>17</v>
+      </c>
+      <c r="AH63">
+        <v>3174</v>
+      </c>
+      <c r="AI63">
+        <v>3152</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>49</v>
       </c>
@@ -19522,8 +22672,23 @@
       <c r="AC64">
         <v>3569</v>
       </c>
+      <c r="AE64">
+        <v>27</v>
+      </c>
+      <c r="AF64">
+        <v>3905</v>
+      </c>
+      <c r="AG64">
+        <v>17</v>
+      </c>
+      <c r="AH64">
+        <v>3044</v>
+      </c>
+      <c r="AI64">
+        <v>3111</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>50</v>
       </c>
@@ -19596,8 +22761,23 @@
       <c r="AC65">
         <v>3617</v>
       </c>
+      <c r="AE65">
+        <v>26</v>
+      </c>
+      <c r="AF65">
+        <v>3897</v>
+      </c>
+      <c r="AG65">
+        <v>16</v>
+      </c>
+      <c r="AH65">
+        <v>3109</v>
+      </c>
+      <c r="AI65">
+        <v>3139</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>48</v>
       </c>
@@ -19670,8 +22850,23 @@
       <c r="AC66">
         <v>3626</v>
       </c>
+      <c r="AE66">
+        <v>27</v>
+      </c>
+      <c r="AF66">
+        <v>3970</v>
+      </c>
+      <c r="AG66">
+        <v>17</v>
+      </c>
+      <c r="AH66">
+        <v>3071</v>
+      </c>
+      <c r="AI66">
+        <v>3088</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>49</v>
       </c>
@@ -19744,8 +22939,23 @@
       <c r="AC67">
         <v>3282</v>
       </c>
+      <c r="AE67">
+        <v>26</v>
+      </c>
+      <c r="AF67">
+        <v>3983</v>
+      </c>
+      <c r="AG67">
+        <v>17</v>
+      </c>
+      <c r="AH67">
+        <v>3109</v>
+      </c>
+      <c r="AI67">
+        <v>3096</v>
+      </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>48</v>
       </c>
@@ -19818,8 +23028,23 @@
       <c r="AC68">
         <v>3577</v>
       </c>
+      <c r="AE68">
+        <v>26</v>
+      </c>
+      <c r="AF68">
+        <v>3990</v>
+      </c>
+      <c r="AG68">
+        <v>17</v>
+      </c>
+      <c r="AH68">
+        <v>3037</v>
+      </c>
+      <c r="AI68">
+        <v>3080</v>
+      </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>56</v>
       </c>
@@ -19892,8 +23117,23 @@
       <c r="AC69">
         <v>3496</v>
       </c>
+      <c r="AE69">
+        <v>26</v>
+      </c>
+      <c r="AF69">
+        <v>3961</v>
+      </c>
+      <c r="AG69">
+        <v>18</v>
+      </c>
+      <c r="AH69">
+        <v>3096</v>
+      </c>
+      <c r="AI69">
+        <v>3139</v>
+      </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>55</v>
       </c>
@@ -19966,8 +23206,23 @@
       <c r="AC70">
         <v>3487</v>
       </c>
+      <c r="AE70">
+        <v>29</v>
+      </c>
+      <c r="AF70">
+        <v>3983</v>
+      </c>
+      <c r="AG70">
+        <v>17</v>
+      </c>
+      <c r="AH70">
+        <v>3143</v>
+      </c>
+      <c r="AI70">
+        <v>3145</v>
+      </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>213</v>
       </c>
@@ -20040,8 +23295,23 @@
       <c r="AC71">
         <v>3377</v>
       </c>
+      <c r="AE71">
+        <v>27</v>
+      </c>
+      <c r="AF71">
+        <v>3954</v>
+      </c>
+      <c r="AG71">
+        <v>21</v>
+      </c>
+      <c r="AH71">
+        <v>3116</v>
+      </c>
+      <c r="AI71">
+        <v>3121</v>
+      </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>61</v>
       </c>
@@ -20114,8 +23384,23 @@
       <c r="AC72">
         <v>3531</v>
       </c>
+      <c r="AE72">
+        <v>27</v>
+      </c>
+      <c r="AF72">
+        <v>3955</v>
+      </c>
+      <c r="AG72">
+        <v>17</v>
+      </c>
+      <c r="AH72">
+        <v>3102</v>
+      </c>
+      <c r="AI72">
+        <v>3155</v>
+      </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>54</v>
       </c>
@@ -20188,8 +23473,23 @@
       <c r="AC73">
         <v>3379</v>
       </c>
+      <c r="AE73">
+        <v>27</v>
+      </c>
+      <c r="AF73">
+        <v>3928</v>
+      </c>
+      <c r="AG73">
+        <v>9</v>
+      </c>
+      <c r="AH73">
+        <v>3135</v>
+      </c>
+      <c r="AI73">
+        <v>3132</v>
+      </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>51</v>
       </c>
@@ -20262,8 +23562,23 @@
       <c r="AC74">
         <v>3483</v>
       </c>
+      <c r="AE74">
+        <v>28</v>
+      </c>
+      <c r="AF74">
+        <v>3914</v>
+      </c>
+      <c r="AG74">
+        <v>17</v>
+      </c>
+      <c r="AH74">
+        <v>3105</v>
+      </c>
+      <c r="AI74">
+        <v>3163</v>
+      </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>52</v>
       </c>
@@ -20336,8 +23651,23 @@
       <c r="AC75">
         <v>3487</v>
       </c>
+      <c r="AE75">
+        <v>27</v>
+      </c>
+      <c r="AF75">
+        <v>3967</v>
+      </c>
+      <c r="AG75">
+        <v>16</v>
+      </c>
+      <c r="AH75">
+        <v>3081</v>
+      </c>
+      <c r="AI75">
+        <v>3160</v>
+      </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>58</v>
       </c>
@@ -20410,8 +23740,23 @@
       <c r="AC76">
         <v>3341</v>
       </c>
+      <c r="AE76">
+        <v>26</v>
+      </c>
+      <c r="AF76">
+        <v>3842</v>
+      </c>
+      <c r="AG76">
+        <v>17</v>
+      </c>
+      <c r="AH76">
+        <v>3081</v>
+      </c>
+      <c r="AI76">
+        <v>3132</v>
+      </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>49</v>
       </c>
@@ -20484,8 +23829,23 @@
       <c r="AC77">
         <v>3352</v>
       </c>
+      <c r="AE77">
+        <v>27</v>
+      </c>
+      <c r="AF77">
+        <v>3945</v>
+      </c>
+      <c r="AG77">
+        <v>16</v>
+      </c>
+      <c r="AH77">
+        <v>3126</v>
+      </c>
+      <c r="AI77">
+        <v>3179</v>
+      </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>48</v>
       </c>
@@ -20558,8 +23918,23 @@
       <c r="AC78">
         <v>3308</v>
       </c>
+      <c r="AE78">
+        <v>26</v>
+      </c>
+      <c r="AF78">
+        <v>3836</v>
+      </c>
+      <c r="AG78">
+        <v>17</v>
+      </c>
+      <c r="AH78">
+        <v>3115</v>
+      </c>
+      <c r="AI78">
+        <v>3106</v>
+      </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>49</v>
       </c>
@@ -20632,8 +24007,23 @@
       <c r="AC79">
         <v>3368</v>
       </c>
+      <c r="AE79">
+        <v>26</v>
+      </c>
+      <c r="AF79">
+        <v>3906</v>
+      </c>
+      <c r="AG79">
+        <v>16</v>
+      </c>
+      <c r="AH79">
+        <v>3095</v>
+      </c>
+      <c r="AI79">
+        <v>3197</v>
+      </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>49</v>
       </c>
@@ -20706,8 +24096,23 @@
       <c r="AC80">
         <v>3279</v>
       </c>
+      <c r="AE80">
+        <v>26</v>
+      </c>
+      <c r="AF80">
+        <v>3882</v>
+      </c>
+      <c r="AG80">
+        <v>17</v>
+      </c>
+      <c r="AH80">
+        <v>3296</v>
+      </c>
+      <c r="AI80">
+        <v>3528</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>53</v>
       </c>
@@ -20780,8 +24185,23 @@
       <c r="AC81">
         <v>3321</v>
       </c>
+      <c r="AE81">
+        <v>29</v>
+      </c>
+      <c r="AF81">
+        <v>4245</v>
+      </c>
+      <c r="AG81">
+        <v>19</v>
+      </c>
+      <c r="AH81">
+        <v>3303</v>
+      </c>
+      <c r="AI81">
+        <v>3274</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>50</v>
       </c>
@@ -20854,8 +24274,23 @@
       <c r="AC82">
         <v>3329</v>
       </c>
+      <c r="AE82">
+        <v>27</v>
+      </c>
+      <c r="AF82">
+        <v>4194</v>
+      </c>
+      <c r="AG82">
+        <v>17</v>
+      </c>
+      <c r="AH82">
+        <v>3200</v>
+      </c>
+      <c r="AI82">
+        <v>3419</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>49</v>
       </c>
@@ -20928,8 +24363,23 @@
       <c r="AC83">
         <v>3354</v>
       </c>
+      <c r="AE83">
+        <v>27</v>
+      </c>
+      <c r="AF83">
+        <v>4027</v>
+      </c>
+      <c r="AG83">
+        <v>17</v>
+      </c>
+      <c r="AH83">
+        <v>3145</v>
+      </c>
+      <c r="AI83">
+        <v>3160</v>
+      </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>51</v>
       </c>
@@ -21002,8 +24452,23 @@
       <c r="AC84">
         <v>3402</v>
       </c>
+      <c r="AE84">
+        <v>26</v>
+      </c>
+      <c r="AF84">
+        <v>3906</v>
+      </c>
+      <c r="AG84">
+        <v>19</v>
+      </c>
+      <c r="AH84">
+        <v>3127</v>
+      </c>
+      <c r="AI84">
+        <v>3144</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>47</v>
       </c>
@@ -21076,8 +24541,23 @@
       <c r="AC85">
         <v>3395</v>
       </c>
+      <c r="AE85">
+        <v>26</v>
+      </c>
+      <c r="AF85">
+        <v>4021</v>
+      </c>
+      <c r="AG85">
+        <v>17</v>
+      </c>
+      <c r="AH85">
+        <v>3193</v>
+      </c>
+      <c r="AI85">
+        <v>3433</v>
+      </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>49</v>
       </c>
@@ -21150,8 +24630,23 @@
       <c r="AC86">
         <v>3279</v>
       </c>
+      <c r="AE86">
+        <v>28</v>
+      </c>
+      <c r="AF86">
+        <v>4149</v>
+      </c>
+      <c r="AG86">
+        <v>17</v>
+      </c>
+      <c r="AH86">
+        <v>3275</v>
+      </c>
+      <c r="AI86">
+        <v>3278</v>
+      </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>48</v>
       </c>
@@ -21224,8 +24719,23 @@
       <c r="AC87">
         <v>3371</v>
       </c>
+      <c r="AE87">
+        <v>27</v>
+      </c>
+      <c r="AF87">
+        <v>4285</v>
+      </c>
+      <c r="AG87">
+        <v>17</v>
+      </c>
+      <c r="AH87">
+        <v>3190</v>
+      </c>
+      <c r="AI87">
+        <v>3141</v>
+      </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>211</v>
       </c>
@@ -21298,8 +24808,23 @@
       <c r="AC88">
         <v>3296</v>
       </c>
+      <c r="AE88">
+        <v>26</v>
+      </c>
+      <c r="AF88">
+        <v>3967</v>
+      </c>
+      <c r="AG88">
+        <v>19</v>
+      </c>
+      <c r="AH88">
+        <v>3096</v>
+      </c>
+      <c r="AI88">
+        <v>3104</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>49</v>
       </c>
@@ -21372,8 +24897,23 @@
       <c r="AC89">
         <v>3279</v>
       </c>
+      <c r="AE89">
+        <v>26</v>
+      </c>
+      <c r="AF89">
+        <v>3943</v>
+      </c>
+      <c r="AG89">
+        <v>17</v>
+      </c>
+      <c r="AH89">
+        <v>3182</v>
+      </c>
+      <c r="AI89">
+        <v>3217</v>
+      </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>50</v>
       </c>
@@ -21446,8 +24986,23 @@
       <c r="AC90">
         <v>3284</v>
       </c>
+      <c r="AE90">
+        <v>25</v>
+      </c>
+      <c r="AF90">
+        <v>3904</v>
+      </c>
+      <c r="AG90">
+        <v>16</v>
+      </c>
+      <c r="AH90">
+        <v>3130</v>
+      </c>
+      <c r="AI90">
+        <v>3140</v>
+      </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>50</v>
       </c>
@@ -21520,8 +25075,23 @@
       <c r="AC91">
         <v>3363</v>
       </c>
+      <c r="AE91">
+        <v>28</v>
+      </c>
+      <c r="AF91">
+        <v>3899</v>
+      </c>
+      <c r="AG91">
+        <v>16</v>
+      </c>
+      <c r="AH91">
+        <v>3146</v>
+      </c>
+      <c r="AI91">
+        <v>3143</v>
+      </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>50</v>
       </c>
@@ -21594,8 +25164,23 @@
       <c r="AC92">
         <v>3384</v>
       </c>
+      <c r="AE92">
+        <v>26</v>
+      </c>
+      <c r="AF92">
+        <v>3961</v>
+      </c>
+      <c r="AG92">
+        <v>17</v>
+      </c>
+      <c r="AH92">
+        <v>3103</v>
+      </c>
+      <c r="AI92">
+        <v>3123</v>
+      </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>48</v>
       </c>
@@ -21668,8 +25253,23 @@
       <c r="AC93">
         <v>3369</v>
       </c>
+      <c r="AE93">
+        <v>27</v>
+      </c>
+      <c r="AF93">
+        <v>3958</v>
+      </c>
+      <c r="AG93">
+        <v>17</v>
+      </c>
+      <c r="AH93">
+        <v>3323</v>
+      </c>
+      <c r="AI93">
+        <v>3391</v>
+      </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>48</v>
       </c>
@@ -21742,8 +25342,23 @@
       <c r="AC94">
         <v>3377</v>
       </c>
+      <c r="AE94">
+        <v>29</v>
+      </c>
+      <c r="AF94">
+        <v>4080</v>
+      </c>
+      <c r="AG94">
+        <v>18</v>
+      </c>
+      <c r="AH94">
+        <v>4571</v>
+      </c>
+      <c r="AI94">
+        <v>3756</v>
+      </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>52</v>
       </c>
@@ -21816,8 +25431,23 @@
       <c r="AC95">
         <v>3316</v>
       </c>
+      <c r="AE95">
+        <v>27</v>
+      </c>
+      <c r="AF95">
+        <v>4184</v>
+      </c>
+      <c r="AG95">
+        <v>17</v>
+      </c>
+      <c r="AH95">
+        <v>3275</v>
+      </c>
+      <c r="AI95">
+        <v>3245</v>
+      </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>49</v>
       </c>
@@ -21890,8 +25520,23 @@
       <c r="AC96">
         <v>3384</v>
       </c>
+      <c r="AE96">
+        <v>27</v>
+      </c>
+      <c r="AF96">
+        <v>4107</v>
+      </c>
+      <c r="AG96">
+        <v>18</v>
+      </c>
+      <c r="AH96">
+        <v>3191</v>
+      </c>
+      <c r="AI96">
+        <v>3114</v>
+      </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>48</v>
       </c>
@@ -21964,8 +25609,23 @@
       <c r="AC97">
         <v>3344</v>
       </c>
+      <c r="AE97">
+        <v>27</v>
+      </c>
+      <c r="AF97">
+        <v>4138</v>
+      </c>
+      <c r="AG97">
+        <v>17</v>
+      </c>
+      <c r="AH97">
+        <v>3244</v>
+      </c>
+      <c r="AI97">
+        <v>3145</v>
+      </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>51</v>
       </c>
@@ -22038,8 +25698,23 @@
       <c r="AC98">
         <v>3318</v>
       </c>
+      <c r="AE98">
+        <v>27</v>
+      </c>
+      <c r="AF98">
+        <v>4019</v>
+      </c>
+      <c r="AG98">
+        <v>16</v>
+      </c>
+      <c r="AH98">
+        <v>3096</v>
+      </c>
+      <c r="AI98">
+        <v>3124</v>
+      </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>50</v>
       </c>
@@ -22112,8 +25787,23 @@
       <c r="AC99">
         <v>3445</v>
       </c>
+      <c r="AE99">
+        <v>27</v>
+      </c>
+      <c r="AF99">
+        <v>3932</v>
+      </c>
+      <c r="AG99">
+        <v>17</v>
+      </c>
+      <c r="AH99">
+        <v>3428</v>
+      </c>
+      <c r="AI99">
+        <v>3175</v>
+      </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>50</v>
       </c>
@@ -22186,8 +25876,23 @@
       <c r="AC100">
         <v>3370</v>
       </c>
+      <c r="AE100">
+        <v>40</v>
+      </c>
+      <c r="AF100">
+        <v>4015</v>
+      </c>
+      <c r="AG100">
+        <v>17</v>
+      </c>
+      <c r="AH100">
+        <v>3093</v>
+      </c>
+      <c r="AI100">
+        <v>3115</v>
+      </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>48</v>
       </c>
@@ -22260,8 +25965,23 @@
       <c r="AC101">
         <v>3394</v>
       </c>
+      <c r="AE101">
+        <v>26</v>
+      </c>
+      <c r="AF101">
+        <v>3991</v>
+      </c>
+      <c r="AG101">
+        <v>17</v>
+      </c>
+      <c r="AH101">
+        <v>3090</v>
+      </c>
+      <c r="AI101">
+        <v>3120</v>
+      </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>196</v>
       </c>
@@ -22333,6 +26053,21 @@
       </c>
       <c r="AC102">
         <v>3897</v>
+      </c>
+      <c r="AE102">
+        <v>27</v>
+      </c>
+      <c r="AF102">
+        <v>3910</v>
+      </c>
+      <c r="AG102">
+        <v>17</v>
+      </c>
+      <c r="AH102">
+        <v>3077</v>
+      </c>
+      <c r="AI102">
+        <v>3103</v>
       </c>
     </row>
   </sheetData>
@@ -22342,15 +26077,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -22501,6 +26236,32 @@
         <v>3404.53</v>
       </c>
     </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>Results!AE1</f>
+        <v>Spring Web/Microservices/Discovery, Double size Entity</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(Results!AE3:AE102)</f>
+        <v>30.68</v>
+      </c>
+      <c r="D9" s="1">
+        <f>AVERAGE(Results!AF3:AF102)</f>
+        <v>4086.04</v>
+      </c>
+      <c r="E9" s="1">
+        <f>AVERAGE(Results!AG3:AG102)</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f>AVERAGE(Results!AH3:AH102)</f>
+        <v>3182.05</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(Results!AI3:AI102)</f>
+        <v>3179.42</v>
+      </c>
+    </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="0">C3</f>
@@ -22567,6 +26328,20 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f>B9</f>
+        <v>Spring Web/Microservices/Discovery, Double size Entity</v>
+      </c>
+      <c r="C20">
+        <f>C9</f>
+        <v>30.68</v>
+      </c>
+      <c r="D20">
+        <f>E9</f>
+        <v>18.309999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SpringSpeedTestResults/SpringSpeedTestResults/Results.xlsx
+++ b/SpringSpeedTestResults/SpringSpeedTestResults/Results.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Create</t>
   </si>
@@ -85,7 +85,19 @@
     <t>Cloud service</t>
   </si>
   <si>
-    <t>Cloud</t>
+    <t>Local Network (wireless)</t>
+  </si>
+  <si>
+    <t>Internet Birmingham/home (Wireless)</t>
+  </si>
+  <si>
+    <t>Cloud test - China</t>
+  </si>
+  <si>
+    <t>Cloud test - Localish</t>
+  </si>
+  <si>
+    <t>Cloud test - localhost</t>
   </si>
 </sst>
 </file>
@@ -335,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="388969680"/>
-        <c:axId val="388970072"/>
+        <c:axId val="369665664"/>
+        <c:axId val="369671936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388969680"/>
+        <c:axId val="369665664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388970072"/>
+        <c:crossAx val="369671936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -390,7 +402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388970072"/>
+        <c:axId val="369671936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388969680"/>
+        <c:crossAx val="369665664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,7 +569,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -740,11 +751,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449738328"/>
-        <c:axId val="449739112"/>
+        <c:axId val="430570776"/>
+        <c:axId val="430573520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449738328"/>
+        <c:axId val="430570776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449739112"/>
+        <c:crossAx val="430573520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449739112"/>
+        <c:axId val="430573520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449738328"/>
+        <c:crossAx val="430570776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -860,7 +871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2382,11 +2392,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="388970464"/>
-        <c:axId val="388963800"/>
+        <c:axId val="369669584"/>
+        <c:axId val="369664880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388970464"/>
+        <c:axId val="369669584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388963800"/>
+        <c:crossAx val="369664880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388963800"/>
+        <c:axId val="369664880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388970464"/>
+        <c:crossAx val="369669584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,11 +4328,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="388964584"/>
-        <c:axId val="388969288"/>
+        <c:axId val="369668016"/>
+        <c:axId val="369671152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388964584"/>
+        <c:axId val="369668016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388969288"/>
+        <c:crossAx val="369671152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4372,7 +4382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388969288"/>
+        <c:axId val="369671152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4423,7 +4433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388964584"/>
+        <c:crossAx val="369668016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6254,11 +6264,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="388967328"/>
-        <c:axId val="388963016"/>
+        <c:axId val="369666840"/>
+        <c:axId val="369671544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388967328"/>
+        <c:axId val="369666840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,7 +6310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388963016"/>
+        <c:crossAx val="369671544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6308,7 +6318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388963016"/>
+        <c:axId val="369671544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,7 +6369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388967328"/>
+        <c:crossAx val="369666840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8190,11 +8200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="388968504"/>
-        <c:axId val="388968896"/>
+        <c:axId val="369669976"/>
+        <c:axId val="430570384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388968504"/>
+        <c:axId val="369669976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8236,7 +8246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388968896"/>
+        <c:crossAx val="430570384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8244,7 +8254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388968896"/>
+        <c:axId val="430570384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8295,7 +8305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388968504"/>
+        <c:crossAx val="369669976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10126,11 +10136,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="449744992"/>
-        <c:axId val="449737936"/>
+        <c:axId val="430574304"/>
+        <c:axId val="430568424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449744992"/>
+        <c:axId val="430574304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10172,7 +10182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449737936"/>
+        <c:crossAx val="430568424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10180,7 +10190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449737936"/>
+        <c:axId val="430568424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10231,7 +10241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449744992"/>
+        <c:crossAx val="430574304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10754,11 +10764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449742640"/>
-        <c:axId val="449742248"/>
+        <c:axId val="430569992"/>
+        <c:axId val="430573128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449742640"/>
+        <c:axId val="430569992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10801,7 +10811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449742248"/>
+        <c:crossAx val="430573128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10809,7 +10819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449742248"/>
+        <c:axId val="430573128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10860,7 +10870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449742640"/>
+        <c:crossAx val="430569992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10950,6 +10960,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11140,11 +11151,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449738720"/>
-        <c:axId val="449743032"/>
+        <c:axId val="430574696"/>
+        <c:axId val="430567248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449738720"/>
+        <c:axId val="430574696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11187,7 +11198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449743032"/>
+        <c:crossAx val="430567248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11195,7 +11206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449743032"/>
+        <c:axId val="430567248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11246,7 +11257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449738720"/>
+        <c:crossAx val="430574696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11260,6 +11271,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11748,11 +11760,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449737544"/>
-        <c:axId val="449744600"/>
+        <c:axId val="430569600"/>
+        <c:axId val="430567640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449737544"/>
+        <c:axId val="430569600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11795,7 +11807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449744600"/>
+        <c:crossAx val="430567640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11803,7 +11815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449744600"/>
+        <c:axId val="430567640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11854,7 +11866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449737544"/>
+        <c:crossAx val="430569600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18013,10 +18025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR102"/>
+  <dimension ref="A1:BG102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK83" sqref="AK83"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18024,7 +18036,7 @@
     <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -18047,16 +18059,22 @@
         <v>11</v>
       </c>
       <c r="AK1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AN1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18165,8 +18183,47 @@
       <c r="AR2" t="s">
         <v>1</v>
       </c>
+      <c r="AS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104</v>
       </c>
@@ -18267,7 +18324,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>69</v>
       </c>
@@ -18368,7 +18425,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>57</v>
       </c>
@@ -18469,7 +18526,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71</v>
       </c>
@@ -18570,7 +18627,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>74</v>
       </c>
@@ -18671,7 +18728,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>52</v>
       </c>
@@ -18772,7 +18829,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>165</v>
       </c>
@@ -18873,7 +18930,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53</v>
       </c>
@@ -18974,7 +19031,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>682</v>
       </c>
@@ -19075,7 +19132,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>145</v>
       </c>
@@ -19176,7 +19233,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>91</v>
       </c>
@@ -19277,7 +19334,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>58</v>
       </c>
@@ -19378,7 +19435,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -19479,7 +19536,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>85</v>
       </c>
@@ -28276,7 +28333,7 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
